--- a/biology/Botanique/Freedom_(pomme)/Freedom_(pomme).xlsx
+++ b/biology/Botanique/Freedom_(pomme)/Freedom_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Freedom est un cultivar de pommier domestique.
 </t>
@@ -511,10 +523,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Croisement de (Macoun × Antonovka) × (Golden Delicious × PRI F2 26829-2-2).
-1958, New York State Agricultural Experiment Station, Geneva, USA[1].
+1958, New York State Agricultural Experiment Station, Geneva, USA.
 Diffusée en 1983.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété diploïde
 Groupe de floraison : D
@@ -576,7 +592,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété possède le gène Vf et la résistance polygénique de l'Antonovka.
 </t>
